--- a/spreadsheets/linear_infer_testing.xlsx
+++ b/spreadsheets/linear_infer_testing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="30">
   <si>
     <t>x</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>cbow</t>
+  </si>
+  <si>
+    <t>now try some default input: 12 +/- 15% variation</t>
+  </si>
+  <si>
+    <t>try default sticky = 10 (instead of 1), no default init</t>
+  </si>
+  <si>
+    <t>default sticky = 10</t>
   </si>
 </sst>
 </file>
@@ -2836,11 +2845,11 @@
         <v>0.48002400000000001</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N26" si="2">AVERAGE(I19:M19)</f>
+        <f t="shared" ref="N19:N25" si="2">AVERAGE(I19:M19)</f>
         <v>0.48252299999999992</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O26" si="3">(ABS(N19-B$7)/B$7)*100</f>
+        <f t="shared" ref="O19:O25" si="3">(ABS(N19-B$7)/B$7)*100</f>
         <v>3.4954000000000152</v>
       </c>
     </row>
@@ -3019,10 +3028,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="G47" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3059,6 +3068,9 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
@@ -3137,11 +3149,11 @@
         <v>10.400600000000001</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N13" si="0">AVERAGE(I6:M6)</f>
+        <f t="shared" ref="N6:N12" si="0">AVERAGE(I6:M6)</f>
         <v>10.424060000000001</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O13" si="1">(ABS(N6-B$7)/B$7)*100</f>
+        <f t="shared" ref="O6:O12" si="1">(ABS(N6-B$7)/B$7)*100</f>
         <v>30.506266666666658</v>
       </c>
     </row>
@@ -3381,8 +3393,11 @@
       <c r="G16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>24</v>
       </c>
@@ -3408,7 +3423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H18">
         <v>4900</v>
       </c>
@@ -3436,7 +3451,7 @@
         <v>90.553613333333345</v>
       </c>
     </row>
-    <row r="19" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H19">
         <v>10000</v>
       </c>
@@ -3464,7 +3479,7 @@
         <v>86.442000000000007</v>
       </c>
     </row>
-    <row r="20" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H20">
         <v>100000</v>
       </c>
@@ -3492,7 +3507,7 @@
         <v>73.396333333333345</v>
       </c>
     </row>
-    <row r="21" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H21">
         <v>1000000</v>
       </c>
@@ -3520,44 +3535,772 @@
         <v>64.502106666666663</v>
       </c>
     </row>
-    <row r="22" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="N22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="N23" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="N24" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="N25" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>0.15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>140</v>
+      </c>
+      <c r="I28">
+        <v>13.528700000000001</v>
+      </c>
+      <c r="J28">
+        <v>13.4192</v>
+      </c>
+      <c r="K28">
+        <v>11.3794</v>
+      </c>
+      <c r="L28">
+        <v>10.9367</v>
+      </c>
+      <c r="M28">
+        <v>10.5267</v>
+      </c>
+      <c r="N28">
+        <f>AVERAGE(I28:M28)</f>
+        <v>11.95814</v>
+      </c>
+      <c r="O28">
+        <f>(ABS(N28-B$7)/B$7)*100</f>
+        <v>20.279066666666665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>500</v>
+      </c>
+      <c r="I29">
+        <v>13.317600000000001</v>
+      </c>
+      <c r="J29">
+        <v>12.288399999999999</v>
+      </c>
+      <c r="K29">
+        <v>11.555199999999999</v>
+      </c>
+      <c r="L29">
+        <v>11.4298</v>
+      </c>
+      <c r="M29">
+        <v>13.384600000000001</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="N29:N36" si="6">AVERAGE(I29:M29)</f>
+        <v>12.39512</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ref="O29:O36" si="7">(ABS(N29-B$7)/B$7)*100</f>
+        <v>17.365866666666665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>1000</v>
+      </c>
+      <c r="I30">
+        <v>13.328799999999999</v>
+      </c>
+      <c r="J30">
+        <v>12.9422</v>
+      </c>
+      <c r="K30">
+        <v>12.585100000000001</v>
+      </c>
+      <c r="L30">
+        <v>11.8316</v>
+      </c>
+      <c r="M30">
+        <v>13.5571</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="6"/>
+        <v>12.84896</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>14.340266666666668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>5000</v>
+      </c>
+      <c r="I31">
+        <v>12.1494</v>
+      </c>
+      <c r="J31">
+        <v>11.9102</v>
+      </c>
+      <c r="K31">
+        <v>12.573</v>
+      </c>
+      <c r="L31">
+        <v>12.3009</v>
+      </c>
+      <c r="M31">
+        <v>12.1928</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>12.225259999999999</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="7"/>
+        <v>18.498266666666677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>10000</v>
+      </c>
+      <c r="I32">
+        <v>11.2393</v>
+      </c>
+      <c r="J32">
+        <v>11.719200000000001</v>
+      </c>
+      <c r="K32">
+        <v>11.3957</v>
+      </c>
+      <c r="L32">
+        <v>11.2509</v>
+      </c>
+      <c r="M32">
+        <v>11.655200000000001</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="6"/>
+        <v>11.452059999999999</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>23.652933333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>25000</v>
+      </c>
+      <c r="I33">
+        <v>9.6037999999999997</v>
+      </c>
+      <c r="J33">
+        <v>9.6806199999999993</v>
+      </c>
+      <c r="K33">
+        <v>9.5563500000000001</v>
+      </c>
+      <c r="L33">
+        <v>9.5873799999999996</v>
+      </c>
+      <c r="M33">
+        <v>9.5575899999999994</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="6"/>
+        <v>9.5971480000000007</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="7"/>
+        <v>36.019013333333326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>750</v>
+      </c>
+      <c r="I34">
+        <v>12.2371</v>
+      </c>
+      <c r="J34">
+        <v>11.6394</v>
+      </c>
+      <c r="K34">
+        <v>13.4619</v>
+      </c>
+      <c r="L34">
+        <v>12.854200000000001</v>
+      </c>
+      <c r="M34">
+        <v>12.6899</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="6"/>
+        <v>12.576499999999999</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>16.156666666666673</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>900</v>
+      </c>
+      <c r="I35">
+        <v>11.682</v>
+      </c>
+      <c r="J35">
+        <v>13.4823</v>
+      </c>
+      <c r="K35">
+        <v>13.140700000000001</v>
+      </c>
+      <c r="L35">
+        <v>13.3096</v>
+      </c>
+      <c r="M35">
+        <v>12.896000000000001</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>12.90212</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>13.985866666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>950</v>
+      </c>
+      <c r="I36">
+        <v>12.0997</v>
+      </c>
+      <c r="J36">
+        <v>13.8833</v>
+      </c>
+      <c r="K36">
+        <v>13.473100000000001</v>
+      </c>
+      <c r="L36">
+        <v>13.004200000000001</v>
+      </c>
+      <c r="M36">
+        <v>13.018700000000001</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>13.095800000000001</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>12.694666666666663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>4900</v>
+      </c>
+      <c r="I41">
+        <v>1.4390400000000001</v>
+      </c>
+      <c r="J41">
+        <v>1.31037</v>
+      </c>
+      <c r="K41">
+        <v>1.33283</v>
+      </c>
+      <c r="L41">
+        <v>1.4043000000000001</v>
+      </c>
+      <c r="M41">
+        <v>1.34423</v>
+      </c>
+      <c r="N41">
+        <f>AVERAGE(I41:M41)</f>
+        <v>1.3661540000000003</v>
+      </c>
+      <c r="O41">
+        <f>(ABS(N41-B$7)/B$7)*100</f>
+        <v>90.89230666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>10000</v>
+      </c>
+      <c r="I42">
+        <v>1.98106</v>
+      </c>
+      <c r="J42">
+        <v>2.0030600000000001</v>
+      </c>
+      <c r="K42">
+        <v>2.0738599999999998</v>
+      </c>
+      <c r="L42">
+        <v>1.93519</v>
+      </c>
+      <c r="M42">
+        <v>1.99722</v>
+      </c>
+      <c r="N42">
+        <f t="shared" ref="N42:N44" si="8">AVERAGE(I42:M42)</f>
+        <v>1.998078</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:O44" si="9">(ABS(N42-B$7)/B$7)*100</f>
+        <v>86.679479999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>25000</v>
+      </c>
+      <c r="I43">
+        <v>2.8906200000000002</v>
+      </c>
+      <c r="J43">
+        <v>2.8287499999999999</v>
+      </c>
+      <c r="K43">
+        <v>2.8102200000000002</v>
+      </c>
+      <c r="L43">
+        <v>2.8510300000000002</v>
+      </c>
+      <c r="M43">
+        <v>2.8502900000000002</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="8"/>
+        <v>2.8461819999999998</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="9"/>
+        <v>81.025453333333346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>100000</v>
+      </c>
+      <c r="I44">
+        <v>3.9807600000000001</v>
+      </c>
+      <c r="J44">
+        <v>3.95892</v>
+      </c>
+      <c r="K44">
+        <v>3.9826800000000002</v>
+      </c>
+      <c r="L44">
+        <v>3.95722</v>
+      </c>
+      <c r="M44">
+        <v>3.9462700000000002</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="8"/>
+        <v>3.9651700000000005</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="9"/>
+        <v>73.565533333333335</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>250000</v>
+      </c>
+      <c r="I45">
+        <v>4.6070399999999996</v>
+      </c>
+      <c r="J45">
+        <v>4.6067400000000003</v>
+      </c>
+      <c r="K45">
+        <v>4.5976699999999999</v>
+      </c>
+      <c r="L45">
+        <v>4.5853099999999998</v>
+      </c>
+      <c r="M45">
+        <v>4.5966100000000001</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ref="N45:N48" si="10">AVERAGE(I45:M45)</f>
+        <v>4.5986739999999999</v>
+      </c>
+      <c r="O45">
+        <f t="shared" ref="O45:O48" si="11">(ABS(N45-B$7)/B$7)*100</f>
+        <v>69.342173333333335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" t="s">
+        <v>15</v>
+      </c>
+      <c r="M50" t="s">
+        <v>16</v>
+      </c>
+      <c r="N50" t="s">
+        <v>17</v>
+      </c>
+      <c r="O50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>140</v>
+      </c>
+      <c r="I51">
+        <v>3.94842</v>
+      </c>
+      <c r="J51">
+        <v>4.2018399999999998</v>
+      </c>
+      <c r="K51">
+        <v>4.1431100000000001</v>
+      </c>
+      <c r="L51">
+        <v>4.0296500000000002</v>
+      </c>
+      <c r="M51">
+        <v>4.1268399999999996</v>
+      </c>
+      <c r="N51">
+        <f>AVERAGE(I51:M51)</f>
+        <v>4.0899720000000004</v>
+      </c>
+      <c r="O51">
+        <f>(ABS(N51-B$7)/B$7)*100</f>
+        <v>72.733520000000013</v>
+      </c>
+    </row>
+    <row r="52" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>4000</v>
+      </c>
+      <c r="I52">
+        <v>10.982100000000001</v>
+      </c>
+      <c r="J52">
+        <v>11.071199999999999</v>
+      </c>
+      <c r="K52">
+        <v>10.831099999999999</v>
+      </c>
+      <c r="L52">
+        <v>11.0284</v>
+      </c>
+      <c r="M52">
+        <v>10.8658</v>
+      </c>
+      <c r="N52">
+        <f t="shared" ref="N52:N59" si="12">AVERAGE(I52:M52)</f>
+        <v>10.955719999999999</v>
+      </c>
+      <c r="O52">
+        <f t="shared" ref="O52:O59" si="13">(ABS(N52-B$7)/B$7)*100</f>
+        <v>26.961866666666673</v>
+      </c>
+    </row>
+    <row r="53" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>10000</v>
+      </c>
+      <c r="I53">
+        <v>10.768000000000001</v>
+      </c>
+      <c r="J53">
+        <v>10.5092</v>
+      </c>
+      <c r="K53">
+        <v>10.6591</v>
+      </c>
+      <c r="L53">
+        <v>10.6387</v>
+      </c>
+      <c r="M53">
+        <v>10.5443</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="12"/>
+        <v>10.623860000000001</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="13"/>
+        <v>29.174266666666664</v>
+      </c>
+    </row>
+    <row r="54" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>6000</v>
+      </c>
+      <c r="I54">
+        <v>10.9183</v>
+      </c>
+      <c r="J54">
+        <v>11.0059</v>
+      </c>
+      <c r="K54">
+        <v>10.977399999999999</v>
+      </c>
+      <c r="L54">
+        <v>10.898199999999999</v>
+      </c>
+      <c r="M54">
+        <v>11.0359</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="12"/>
+        <v>10.967140000000001</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="13"/>
+        <v>26.885733333333327</v>
+      </c>
+    </row>
+    <row r="55" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>7000</v>
+      </c>
+      <c r="I55">
+        <v>10.7441</v>
+      </c>
+      <c r="J55">
+        <v>10.954000000000001</v>
+      </c>
+      <c r="K55">
+        <v>10.961399999999999</v>
+      </c>
+      <c r="L55">
+        <v>10.757400000000001</v>
+      </c>
+      <c r="M55">
+        <v>11.013199999999999</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="12"/>
+        <v>10.886019999999998</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="13"/>
+        <v>27.426533333333342</v>
+      </c>
+    </row>
+    <row r="57" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" t="s">
+        <v>15</v>
+      </c>
+      <c r="M58" t="s">
+        <v>16</v>
+      </c>
+      <c r="N58" t="s">
+        <v>17</v>
+      </c>
+      <c r="O58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>4900</v>
+      </c>
+      <c r="I59">
+        <v>1.6166</v>
+      </c>
+      <c r="J59">
+        <v>1.411</v>
+      </c>
+      <c r="K59">
+        <v>1.4975000000000001</v>
+      </c>
+      <c r="L59">
+        <v>1.7015899999999999</v>
+      </c>
+      <c r="M59">
+        <v>1.4057299999999999</v>
+      </c>
+      <c r="N59">
+        <f>AVERAGE(I59:M59)</f>
+        <v>1.526484</v>
+      </c>
+      <c r="O59">
+        <f>(ABS(N59-B$7)/B$7)*100</f>
+        <v>89.823440000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>20000</v>
+      </c>
+      <c r="I60">
+        <v>4.1500700000000004</v>
+      </c>
+      <c r="J60">
+        <v>4.0173100000000002</v>
+      </c>
+      <c r="K60">
+        <v>4.0724600000000004</v>
+      </c>
+      <c r="L60">
+        <v>4.0721400000000001</v>
+      </c>
+      <c r="M60">
+        <v>3.9326400000000001</v>
+      </c>
+      <c r="N60">
+        <f t="shared" ref="N60:N63" si="14">AVERAGE(I60:M60)</f>
+        <v>4.0489240000000004</v>
+      </c>
+      <c r="O60">
+        <f>(ABS(N60-B$7)/B$7)*100</f>
+        <v>73.007173333333341</v>
+      </c>
+    </row>
+    <row r="61" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <v>100000</v>
+      </c>
+      <c r="I61">
+        <v>5.2835900000000002</v>
+      </c>
+      <c r="J61">
+        <v>5.2715300000000003</v>
+      </c>
+      <c r="K61">
+        <v>5.2834500000000002</v>
+      </c>
+      <c r="L61">
+        <v>5.2746399999999998</v>
+      </c>
+      <c r="M61">
+        <v>5.2703699999999998</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="14"/>
+        <v>5.2767160000000004</v>
+      </c>
+      <c r="O61">
+        <f>(ABS(N61-B$7)/B$7)*100</f>
+        <v>64.821893333333335</v>
       </c>
     </row>
   </sheetData>

--- a/spreadsheets/linear_infer_testing.xlsx
+++ b/spreadsheets/linear_infer_testing.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23316" windowHeight="12336" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="8796" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="simple linear" sheetId="3" r:id="rId3"/>
-    <sheet name="simple linear (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="verify convergence" sheetId="5" r:id="rId4"/>
+    <sheet name="simple linear large values" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="34">
   <si>
     <t>x</t>
   </si>
@@ -117,6 +118,18 @@
   </si>
   <si>
     <t>default sticky = 10</t>
+  </si>
+  <si>
+    <t>try default sticky = 20 (instead of 1), no default init</t>
+  </si>
+  <si>
+    <t>default sticky = 20</t>
+  </si>
+  <si>
+    <t>try alpha * 10 from usual</t>
+  </si>
+  <si>
+    <t>alpha * 10</t>
   </si>
 </sst>
 </file>
@@ -660,6 +673,2022 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>skip-gram</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'simple linear'!$Q$5:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'simple linear'!$R$5:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.0125999999999866</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3394000000000128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4519600000000068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8799999999999919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0663999999999896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2910399999999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0127199999999901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4224400000000044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5880799999999935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2160-4262-B894-A92DB24E6B42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="693557567"/>
+        <c:axId val="693560479"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="693557567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SGD</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693560479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="693560479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693557567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CBOW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'simple linear'!$Q$18:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'simple linear'!$R$18:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.4954000000000152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3986000000000054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3583600000000038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20328000000000568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96448000000000089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20771999999998902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48467999999999289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5762000000000098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC46-4C94-97C8-F3C603FDE76F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="693557567"/>
+        <c:axId val="693560479"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="693557567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SGD epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693560479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="693560479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percent Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693557567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Skip-gram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'verify convergence'!$H$5:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'verify convergence'!$O$5:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>93.50864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.77928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.744119999999974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.572920000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4824800000000016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.246119999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62995999999999608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23763999999999452</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54956000000001559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28323999999999572</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2035200000000024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1726000000000014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.240679999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9153200000000092</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2834400000000152</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.1536000000000017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2520399999999903</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9753600000000056</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6002799999999908</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8197999999999972</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.3456000000000063</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2535599999999922</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.0112000000000076</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.6889599999999909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F508-4D0C-B916-20CAD66B55F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1830727552"/>
+        <c:axId val="1830730048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1830727552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830730048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1830730048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>percent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> error</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830727552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CBOW</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'verify convergence'!$H$32:$H$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5750</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'verify convergence'!$O$32:$O$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>84.116520000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.490680000000012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.421159999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.861720000000012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.00483999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.718440000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.718960000000017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.885000000000012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.065560000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.926159999999982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2829200000000167</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9450399999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8227599999999926</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1828400000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3294399999999964</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.382999999999984</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.3488400000000027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.6754800000000039</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94604000000000354</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61151999999999873</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9661200000000045</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6185200000000011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.4960000000000591E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8301200000000044</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.2864799999999921</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.4943599999999986</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.1909200000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.6645600000000202</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.4126799999999946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A56-4E84-9933-AE47494D54C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1830727552"/>
+        <c:axId val="1830730048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1830727552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830730048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1830730048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>percent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> error</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830727552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -697,7 +2726,2231 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1240,6 +5493,140 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2408,10 +6795,1665 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.25</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.75</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="I5">
+        <v>0.477294</v>
+      </c>
+      <c r="J5">
+        <v>0.48421199999999998</v>
+      </c>
+      <c r="K5">
+        <v>0.49025600000000003</v>
+      </c>
+      <c r="L5">
+        <v>0.47933399999999998</v>
+      </c>
+      <c r="M5">
+        <v>0.47920200000000002</v>
+      </c>
+      <c r="N5">
+        <f>AVERAGE(I5:M5)</f>
+        <v>0.48205960000000003</v>
+      </c>
+      <c r="O5">
+        <f>(ABS(N5-B$7)/B$7)*100</f>
+        <v>3.5880799999999935</v>
+      </c>
+      <c r="Q5">
+        <v>125</v>
+      </c>
+      <c r="R5">
+        <v>2.0125999999999866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6">
+        <v>150</v>
+      </c>
+      <c r="I6">
+        <v>0.50509099999999996</v>
+      </c>
+      <c r="J6">
+        <v>0.492645</v>
+      </c>
+      <c r="K6">
+        <v>0.48206399999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.496091</v>
+      </c>
+      <c r="M6">
+        <v>0.49183300000000002</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N13" si="0">AVERAGE(I6:M6)</f>
+        <v>0.49354480000000001</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O13" si="1">(ABS(N6-B$7)/B$7)*100</f>
+        <v>1.2910399999999989</v>
+      </c>
+      <c r="Q6">
+        <v>135</v>
+      </c>
+      <c r="R6">
+        <v>1.3394000000000128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>175</v>
+      </c>
+      <c r="I7">
+        <v>0.48336099999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.48956699999999997</v>
+      </c>
+      <c r="K7">
+        <v>0.48284199999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.494224</v>
+      </c>
+      <c r="M7">
+        <v>0.49968800000000002</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.48993640000000005</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>2.0127199999999901</v>
+      </c>
+      <c r="Q7">
+        <v>137</v>
+      </c>
+      <c r="R7">
+        <v>0.4519600000000068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>185</v>
+      </c>
+      <c r="I8">
+        <v>0.487037</v>
+      </c>
+      <c r="J8">
+        <v>0.480883</v>
+      </c>
+      <c r="K8">
+        <v>0.48382799999999998</v>
+      </c>
+      <c r="L8">
+        <v>0.47209299999999998</v>
+      </c>
+      <c r="M8">
+        <v>0.49059799999999998</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.48288779999999998</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>3.4224400000000044</v>
+      </c>
+      <c r="Q8">
+        <v>140</v>
+      </c>
+      <c r="R8">
+        <v>0.8799999999999919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>125</v>
+      </c>
+      <c r="I9">
+        <v>0.51119899999999996</v>
+      </c>
+      <c r="J9">
+        <v>0.51668599999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.50848599999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.51274699999999995</v>
+      </c>
+      <c r="M9">
+        <v>0.501197</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.51006299999999993</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>2.0125999999999866</v>
+      </c>
+      <c r="Q9">
+        <v>145</v>
+      </c>
+      <c r="R9">
+        <v>1.0663999999999896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>135</v>
+      </c>
+      <c r="I10">
+        <v>0.51187099999999996</v>
+      </c>
+      <c r="J10">
+        <v>0.50833899999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.50424000000000002</v>
+      </c>
+      <c r="L10">
+        <v>0.509382</v>
+      </c>
+      <c r="M10">
+        <v>0.49965300000000001</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.50669700000000006</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>1.3394000000000128</v>
+      </c>
+      <c r="Q10">
+        <v>150</v>
+      </c>
+      <c r="R10">
+        <v>1.2910399999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>140</v>
+      </c>
+      <c r="I11">
+        <v>0.50509499999999996</v>
+      </c>
+      <c r="J11">
+        <v>0.503714</v>
+      </c>
+      <c r="K11">
+        <v>0.49817600000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.50718300000000005</v>
+      </c>
+      <c r="M11">
+        <v>0.50783199999999995</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0.8799999999999919</v>
+      </c>
+      <c r="Q11">
+        <v>175</v>
+      </c>
+      <c r="R11">
+        <v>2.0127199999999901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>145</v>
+      </c>
+      <c r="I12">
+        <v>0.49704900000000002</v>
+      </c>
+      <c r="J12">
+        <v>0.496473</v>
+      </c>
+      <c r="K12">
+        <v>0.491232</v>
+      </c>
+      <c r="L12">
+        <v>0.493558</v>
+      </c>
+      <c r="M12">
+        <v>0.49502800000000002</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.49466800000000005</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>1.0663999999999896</v>
+      </c>
+      <c r="Q12">
+        <v>185</v>
+      </c>
+      <c r="R12">
+        <v>3.4224400000000044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>137</v>
+      </c>
+      <c r="I13">
+        <v>0.49846600000000002</v>
+      </c>
+      <c r="J13">
+        <v>0.50531000000000004</v>
+      </c>
+      <c r="K13">
+        <v>0.50460199999999999</v>
+      </c>
+      <c r="L13">
+        <v>0.50866100000000003</v>
+      </c>
+      <c r="M13">
+        <v>0.49425999999999998</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.50225980000000003</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0.4519600000000068</v>
+      </c>
+      <c r="Q13">
+        <v>200</v>
+      </c>
+      <c r="R13">
+        <v>3.5880799999999935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>5000</v>
+      </c>
+      <c r="I18">
+        <v>0.50206700000000004</v>
+      </c>
+      <c r="J18">
+        <v>0.48826799999999998</v>
+      </c>
+      <c r="K18">
+        <v>0.495174</v>
+      </c>
+      <c r="L18">
+        <v>0.48793199999999998</v>
+      </c>
+      <c r="M18">
+        <v>0.51444199999999995</v>
+      </c>
+      <c r="N18">
+        <f>AVERAGE(I18:M18)</f>
+        <v>0.49757660000000004</v>
+      </c>
+      <c r="O18">
+        <f>(ABS(N18-B$7)/B$7)*100</f>
+        <v>0.48467999999999289</v>
+      </c>
+      <c r="Q18">
+        <v>4000</v>
+      </c>
+      <c r="R18">
+        <v>3.4954000000000152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>4000</v>
+      </c>
+      <c r="I19">
+        <v>0.47847299999999998</v>
+      </c>
+      <c r="J19">
+        <v>0.46806900000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.50183599999999995</v>
+      </c>
+      <c r="L19">
+        <v>0.484213</v>
+      </c>
+      <c r="M19">
+        <v>0.48002400000000001</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N25" si="2">AVERAGE(I19:M19)</f>
+        <v>0.48252299999999992</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O25" si="3">(ABS(N19-B$7)/B$7)*100</f>
+        <v>3.4954000000000152</v>
+      </c>
+      <c r="Q19">
+        <v>4500</v>
+      </c>
+      <c r="R19">
+        <v>1.3986000000000054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>6000</v>
+      </c>
+      <c r="I20">
+        <v>0.457422</v>
+      </c>
+      <c r="J20">
+        <v>0.47072000000000003</v>
+      </c>
+      <c r="K20">
+        <v>0.46939599999999998</v>
+      </c>
+      <c r="L20">
+        <v>0.46750700000000001</v>
+      </c>
+      <c r="M20">
+        <v>0.47055000000000002</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>0.46711899999999995</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>6.5762000000000098</v>
+      </c>
+      <c r="Q20">
+        <v>4750</v>
+      </c>
+      <c r="R20">
+        <v>2.3583600000000038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>4500</v>
+      </c>
+      <c r="I21">
+        <v>0.50149500000000002</v>
+      </c>
+      <c r="J21">
+        <v>0.47379500000000002</v>
+      </c>
+      <c r="K21">
+        <v>0.49879299999999999</v>
+      </c>
+      <c r="L21">
+        <v>0.49568299999999998</v>
+      </c>
+      <c r="M21">
+        <v>0.49526900000000001</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>0.49300699999999997</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>1.3986000000000054</v>
+      </c>
+      <c r="Q21">
+        <v>4900</v>
+      </c>
+      <c r="R21">
+        <v>0.20328000000000568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>4750</v>
+      </c>
+      <c r="I22">
+        <v>0.48317199999999999</v>
+      </c>
+      <c r="J22">
+        <v>0.47868100000000002</v>
+      </c>
+      <c r="K22">
+        <v>0.50053599999999998</v>
+      </c>
+      <c r="L22">
+        <v>0.50086900000000001</v>
+      </c>
+      <c r="M22">
+        <v>0.47778300000000001</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>0.48820819999999998</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>2.3583600000000038</v>
+      </c>
+      <c r="Q22">
+        <v>4925</v>
+      </c>
+      <c r="R22">
+        <v>0.96448000000000089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>4900</v>
+      </c>
+      <c r="I23">
+        <v>0.50866699999999998</v>
+      </c>
+      <c r="J23">
+        <v>0.48210999999999998</v>
+      </c>
+      <c r="K23">
+        <v>0.49327399999999999</v>
+      </c>
+      <c r="L23">
+        <v>0.50569399999999998</v>
+      </c>
+      <c r="M23">
+        <v>0.51533700000000005</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>0.50101640000000003</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>0.20328000000000568</v>
+      </c>
+      <c r="Q23">
+        <v>4950</v>
+      </c>
+      <c r="R23">
+        <v>0.20771999999998902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>4950</v>
+      </c>
+      <c r="I24">
+        <v>0.51389700000000005</v>
+      </c>
+      <c r="J24">
+        <v>0.49232799999999999</v>
+      </c>
+      <c r="K24">
+        <v>0.51245200000000002</v>
+      </c>
+      <c r="L24">
+        <v>0.48665799999999998</v>
+      </c>
+      <c r="M24">
+        <v>0.48947200000000002</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>0.49896140000000005</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>0.20771999999998902</v>
+      </c>
+      <c r="Q24">
+        <v>5000</v>
+      </c>
+      <c r="R24">
+        <v>0.48467999999999289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>4925</v>
+      </c>
+      <c r="I25">
+        <v>0.51537500000000003</v>
+      </c>
+      <c r="J25">
+        <v>0.47100500000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.49945200000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.51138799999999995</v>
+      </c>
+      <c r="M25">
+        <v>0.47866799999999998</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>0.4951776</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>0.96448000000000089</v>
+      </c>
+      <c r="Q25">
+        <v>6000</v>
+      </c>
+      <c r="R25">
+        <v>6.5762000000000098</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>-0.75</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>0.5</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>-0.125</v>
+      </c>
+      <c r="H35">
+        <v>150</v>
+      </c>
+      <c r="I35">
+        <v>-1.1139699999999999</v>
+      </c>
+      <c r="J35">
+        <v>-1.13154</v>
+      </c>
+      <c r="K35">
+        <v>-1.1359900000000001</v>
+      </c>
+      <c r="L35">
+        <v>-1.12951</v>
+      </c>
+      <c r="M35">
+        <v>-1.1537900000000001</v>
+      </c>
+      <c r="N35">
+        <f>AVERAGE(I35:M35)</f>
+        <v>-1.13296</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35:O40" si="4">ABS(ABS(N35-B$35)/B$35)*100</f>
+        <v>806.36799999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>200</v>
+      </c>
+      <c r="I36">
+        <v>-1.1019399999999999</v>
+      </c>
+      <c r="J36">
+        <v>-1.10744</v>
+      </c>
+      <c r="K36">
+        <v>-1.09161</v>
+      </c>
+      <c r="L36">
+        <v>-1.09927</v>
+      </c>
+      <c r="M36">
+        <v>-1.11266</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ref="N36:N40" si="5">AVERAGE(I36:M36)</f>
+        <v>-1.1025839999999998</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="4"/>
+        <v>782.06719999999984</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>-1.1480699999999999</v>
+      </c>
+      <c r="J37">
+        <v>-1.1715100000000001</v>
+      </c>
+      <c r="K37">
+        <v>-1.17377</v>
+      </c>
+      <c r="L37">
+        <v>-1.1388499999999999</v>
+      </c>
+      <c r="M37">
+        <v>-1.1604300000000001</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="5"/>
+        <v>-1.1585259999999999</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="4"/>
+        <v>826.82079999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>-0.476518</v>
+      </c>
+      <c r="J38">
+        <v>-0.25123000000000001</v>
+      </c>
+      <c r="K38">
+        <v>-0.63523099999999999</v>
+      </c>
+      <c r="L38">
+        <v>-0.80488899999999997</v>
+      </c>
+      <c r="M38">
+        <v>-0.533725</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="5"/>
+        <v>-0.54031860000000009</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="4"/>
+        <v>332.25488000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>-0.63739800000000002</v>
+      </c>
+      <c r="J39">
+        <v>-0.183286</v>
+      </c>
+      <c r="K39">
+        <v>-0.51664200000000005</v>
+      </c>
+      <c r="L39">
+        <v>0.32385599999999998</v>
+      </c>
+      <c r="M39">
+        <v>7.1685100000000002E-2</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="5"/>
+        <v>-0.18835698000000001</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="4"/>
+        <v>50.685584000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>-0.48012700000000003</v>
+      </c>
+      <c r="J40">
+        <v>0.307444</v>
+      </c>
+      <c r="K40">
+        <v>-3.6280800000000002E-2</v>
+      </c>
+      <c r="L40">
+        <v>-0.247839</v>
+      </c>
+      <c r="M40">
+        <v>-0.45408100000000001</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>-0.18217676000000002</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="4"/>
+        <v>45.741408000000014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>500</v>
+      </c>
+      <c r="I41">
+        <v>-1.05681</v>
+      </c>
+      <c r="J41">
+        <v>-1.0355399999999999</v>
+      </c>
+      <c r="K41">
+        <v>-1.0281499999999999</v>
+      </c>
+      <c r="L41">
+        <v>-1.06107</v>
+      </c>
+      <c r="M41">
+        <v>-1.06044</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41" si="6">AVERAGE(I41:M41)</f>
+        <v>-1.0484019999999998</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ref="O41" si="7">ABS(ABS(N41-B$35)/B$35)*100</f>
+        <v>738.72159999999985</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" t="s">
+        <v>15</v>
+      </c>
+      <c r="M44" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" t="s">
+        <v>17</v>
+      </c>
+      <c r="O44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>5000</v>
+      </c>
+      <c r="I45">
+        <v>-0.28846100000000002</v>
+      </c>
+      <c r="J45">
+        <v>0.117046</v>
+      </c>
+      <c r="K45">
+        <v>-0.26902999999999999</v>
+      </c>
+      <c r="L45">
+        <v>0.142628</v>
+      </c>
+      <c r="M45">
+        <v>0.13446900000000001</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ref="N45:N51" si="8">AVERAGE(I45:M45)</f>
+        <v>-3.26696E-2</v>
+      </c>
+      <c r="O45">
+        <f t="shared" ref="O45:O51" si="9">ABS(ABS(N45-B$35)/B$35)*100</f>
+        <v>73.864320000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>4800</v>
+      </c>
+      <c r="I46">
+        <v>-0.67386599999999997</v>
+      </c>
+      <c r="J46">
+        <v>-0.42947400000000002</v>
+      </c>
+      <c r="K46">
+        <v>1.19081E-2</v>
+      </c>
+      <c r="L46">
+        <v>-0.330515</v>
+      </c>
+      <c r="M46">
+        <v>-0.117315</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="8"/>
+        <v>-0.30785238000000004</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="9"/>
+        <v>146.28190400000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>6000</v>
+      </c>
+      <c r="I47">
+        <v>4.30479E-2</v>
+      </c>
+      <c r="J47">
+        <v>-0.236378</v>
+      </c>
+      <c r="K47">
+        <v>-0.20718900000000001</v>
+      </c>
+      <c r="L47">
+        <v>-0.10578</v>
+      </c>
+      <c r="M47">
+        <v>-0.31573299999999999</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="8"/>
+        <v>-0.16440642</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="9"/>
+        <v>31.525135999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>8000</v>
+      </c>
+      <c r="I48">
+        <v>-0.20524000000000001</v>
+      </c>
+      <c r="J48">
+        <v>-0.213785</v>
+      </c>
+      <c r="K48">
+        <v>-0.44694800000000001</v>
+      </c>
+      <c r="L48">
+        <v>-0.20428499999999999</v>
+      </c>
+      <c r="M48">
+        <v>-0.35443599999999997</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="8"/>
+        <v>-0.28493879999999999</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="9"/>
+        <v>127.95103999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>7000</v>
+      </c>
+      <c r="I49">
+        <v>-9.6969600000000003E-2</v>
+      </c>
+      <c r="J49">
+        <v>-0.15923699999999999</v>
+      </c>
+      <c r="K49">
+        <v>-5.0273100000000001E-2</v>
+      </c>
+      <c r="L49">
+        <v>-0.114776</v>
+      </c>
+      <c r="M49">
+        <v>-0.15076100000000001</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="8"/>
+        <v>-0.11440334000000001</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="9"/>
+        <v>8.4773279999999946</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>6500</v>
+      </c>
+      <c r="I50">
+        <v>-0.178928</v>
+      </c>
+      <c r="J50">
+        <v>-0.17858099999999999</v>
+      </c>
+      <c r="K50">
+        <v>-0.34851199999999999</v>
+      </c>
+      <c r="L50">
+        <v>-0.191385</v>
+      </c>
+      <c r="M50">
+        <v>-0.23074700000000001</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="8"/>
+        <v>-0.22563059999999999</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="9"/>
+        <v>80.504479999999987</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>7500</v>
+      </c>
+      <c r="I51">
+        <v>-8.3875699999999997E-2</v>
+      </c>
+      <c r="J51">
+        <v>-0.169736</v>
+      </c>
+      <c r="K51">
+        <v>-0.22536700000000001</v>
+      </c>
+      <c r="L51">
+        <v>-0.202101</v>
+      </c>
+      <c r="M51">
+        <v>-0.230328</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="8"/>
+        <v>-0.18228153999999999</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="9"/>
+        <v>45.825231999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>0.7</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" t="s">
+        <v>15</v>
+      </c>
+      <c r="M60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N60" t="s">
+        <v>17</v>
+      </c>
+      <c r="O60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>0.35</v>
+      </c>
+      <c r="H61">
+        <v>150</v>
+      </c>
+      <c r="I61">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="J61">
+        <v>0.93975600000000004</v>
+      </c>
+      <c r="K61">
+        <v>0.93740900000000005</v>
+      </c>
+      <c r="L61">
+        <v>0.90859800000000002</v>
+      </c>
+      <c r="M61">
+        <v>0.87361100000000003</v>
+      </c>
+      <c r="N61">
+        <f>AVERAGE(I61:M61)</f>
+        <v>0.9207548000000001</v>
+      </c>
+      <c r="O61">
+        <f>ABS(ABS(N61-B$61)/B$61)*100</f>
+        <v>163.07280000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <v>200</v>
+      </c>
+      <c r="I62">
+        <v>0.88880099999999995</v>
+      </c>
+      <c r="J62">
+        <v>0.87776500000000002</v>
+      </c>
+      <c r="K62">
+        <v>0.89002400000000004</v>
+      </c>
+      <c r="L62">
+        <v>0.91535699999999998</v>
+      </c>
+      <c r="M62">
+        <v>0.919817</v>
+      </c>
+      <c r="N62">
+        <f t="shared" ref="N62:N67" si="10">AVERAGE(I62:M62)</f>
+        <v>0.89835279999999995</v>
+      </c>
+      <c r="O62">
+        <f t="shared" ref="O62:O67" si="11">ABS(ABS(N62-B$61)/B$61)*100</f>
+        <v>156.67222857142858</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <v>500</v>
+      </c>
+      <c r="I63">
+        <v>0.86103300000000005</v>
+      </c>
+      <c r="J63">
+        <v>0.84233000000000002</v>
+      </c>
+      <c r="K63">
+        <v>0.84773699999999996</v>
+      </c>
+      <c r="L63">
+        <v>0.87579099999999999</v>
+      </c>
+      <c r="M63">
+        <v>0.87764399999999998</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="10"/>
+        <v>0.86090699999999987</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="11"/>
+        <v>145.97342857142854</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64">
+        <v>1000</v>
+      </c>
+      <c r="I64">
+        <v>0.83934299999999995</v>
+      </c>
+      <c r="J64">
+        <v>0.81732899999999997</v>
+      </c>
+      <c r="K64">
+        <v>0.82388899999999998</v>
+      </c>
+      <c r="L64">
+        <v>0.85124100000000003</v>
+      </c>
+      <c r="M64">
+        <v>0.79390799999999995</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="10"/>
+        <v>0.82514199999999993</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="11"/>
+        <v>135.75485714285713</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="H65">
+        <v>2000</v>
+      </c>
+      <c r="I65">
+        <v>0.790663</v>
+      </c>
+      <c r="J65">
+        <v>0.80328500000000003</v>
+      </c>
+      <c r="K65">
+        <v>0.792597</v>
+      </c>
+      <c r="L65">
+        <v>0.81667299999999998</v>
+      </c>
+      <c r="M65">
+        <v>0.81769599999999998</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="10"/>
+        <v>0.80418279999999986</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="11"/>
+        <v>129.76651428571427</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>5000</v>
+      </c>
+      <c r="I66">
+        <v>0.788018</v>
+      </c>
+      <c r="J66">
+        <v>0.81802900000000001</v>
+      </c>
+      <c r="K66">
+        <v>0.80565500000000001</v>
+      </c>
+      <c r="L66">
+        <v>0.794076</v>
+      </c>
+      <c r="M66">
+        <v>0.79411600000000004</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="10"/>
+        <v>0.7999788000000001</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="11"/>
+        <v>128.56537142857147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>10000</v>
+      </c>
+      <c r="I67">
+        <v>0.79341399999999995</v>
+      </c>
+      <c r="J67">
+        <v>0.78879500000000002</v>
+      </c>
+      <c r="K67">
+        <v>0.78681500000000004</v>
+      </c>
+      <c r="L67">
+        <v>0.78847</v>
+      </c>
+      <c r="M67">
+        <v>0.79308500000000004</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="10"/>
+        <v>0.79011579999999992</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="11"/>
+        <v>125.74737142857143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" t="s">
+        <v>14</v>
+      </c>
+      <c r="L70" t="s">
+        <v>15</v>
+      </c>
+      <c r="M70" t="s">
+        <v>16</v>
+      </c>
+      <c r="N70" t="s">
+        <v>17</v>
+      </c>
+      <c r="O70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <v>5000</v>
+      </c>
+      <c r="I71">
+        <v>0.78761400000000004</v>
+      </c>
+      <c r="J71">
+        <v>0.85302800000000001</v>
+      </c>
+      <c r="K71">
+        <v>0.81013000000000002</v>
+      </c>
+      <c r="L71">
+        <v>0.82028999999999996</v>
+      </c>
+      <c r="M71">
+        <v>0.79034499999999996</v>
+      </c>
+      <c r="N71">
+        <f>AVERAGE(I71:M71)</f>
+        <v>0.81228140000000004</v>
+      </c>
+      <c r="O71">
+        <f t="shared" ref="O71:O72" si="12">ABS(ABS(N71-B$61)/B$61)*100</f>
+        <v>132.08040000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>10000</v>
+      </c>
+      <c r="I72">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="J72">
+        <v>0.74915399999999999</v>
+      </c>
+      <c r="K72">
+        <v>0.73195200000000005</v>
+      </c>
+      <c r="L72">
+        <v>0.72952300000000003</v>
+      </c>
+      <c r="M72">
+        <v>0.73059799999999997</v>
+      </c>
+      <c r="N72">
+        <f>AVERAGE(I72:M72)</f>
+        <v>0.73032540000000001</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="12"/>
+        <v>108.66440000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="Q18:X25">
+    <sortCondition ref="Q18:Q25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G23" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2477,30 +8519,30 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H5">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0.477294</v>
+        <v>-8.2273799999999994E-2</v>
       </c>
       <c r="J5">
-        <v>0.48421199999999998</v>
+        <v>0.444189</v>
       </c>
       <c r="K5">
-        <v>0.49025600000000003</v>
+        <v>0.101733</v>
       </c>
       <c r="L5">
-        <v>0.47933399999999998</v>
+        <v>2.1172799999999999E-2</v>
       </c>
       <c r="M5">
-        <v>0.47920200000000002</v>
+        <v>-0.32253700000000002</v>
       </c>
       <c r="N5">
         <f>AVERAGE(I5:M5)</f>
-        <v>0.48205960000000003</v>
+        <v>3.2456799999999994E-2</v>
       </c>
       <c r="O5">
         <f>(ABS(N5-B$7)/B$7)*100</f>
-        <v>3.5880799999999935</v>
+        <v>93.50864</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -2508,30 +8550,30 @@
         <v>21</v>
       </c>
       <c r="H6">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="I6">
-        <v>0.50509099999999996</v>
+        <v>0.82125199999999998</v>
       </c>
       <c r="J6">
-        <v>0.492645</v>
+        <v>0.81538299999999997</v>
       </c>
       <c r="K6">
-        <v>0.48206399999999999</v>
+        <v>0.88993</v>
       </c>
       <c r="L6">
-        <v>0.496091</v>
+        <v>0.83824699999999996</v>
       </c>
       <c r="M6">
-        <v>0.49183300000000002</v>
+        <v>0.82967000000000002</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N13" si="0">AVERAGE(I6:M6)</f>
-        <v>0.49354480000000001</v>
+        <f t="shared" ref="N6:N15" si="0">AVERAGE(I6:M6)</f>
+        <v>0.83889639999999999</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O13" si="1">(ABS(N6-B$7)/B$7)*100</f>
-        <v>1.2910399999999989</v>
+        <f t="shared" ref="O6:O15" si="1">(ABS(N6-B$7)/B$7)*100</f>
+        <v>67.77928</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2542,86 +8584,86 @@
         <v>0.5</v>
       </c>
       <c r="H7">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="I7">
-        <v>0.48336099999999999</v>
+        <v>0.65038099999999999</v>
       </c>
       <c r="J7">
-        <v>0.48956699999999997</v>
+        <v>0.64419499999999996</v>
       </c>
       <c r="K7">
-        <v>0.48284199999999999</v>
+        <v>0.64766599999999996</v>
       </c>
       <c r="L7">
-        <v>0.494224</v>
+        <v>0.64469299999999996</v>
       </c>
       <c r="M7">
-        <v>0.49968800000000002</v>
+        <v>0.65666800000000003</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0.48993640000000005</v>
+        <v>0.64872059999999987</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>2.0127199999999901</v>
+        <v>29.744119999999974</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H8">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="I8">
-        <v>0.487037</v>
+        <v>0.55753399999999997</v>
       </c>
       <c r="J8">
-        <v>0.480883</v>
+        <v>0.57600399999999996</v>
       </c>
       <c r="K8">
-        <v>0.48382799999999998</v>
+        <v>0.570662</v>
       </c>
       <c r="L8">
-        <v>0.47209299999999998</v>
+        <v>0.56806599999999996</v>
       </c>
       <c r="M8">
-        <v>0.49059799999999998</v>
+        <v>0.56705700000000003</v>
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0.48288779999999998</v>
+        <v>0.56786460000000005</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>3.4224400000000044</v>
+        <v>13.572920000000011</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H9">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="I9">
-        <v>0.51119899999999996</v>
+        <v>0.53823799999999999</v>
       </c>
       <c r="J9">
-        <v>0.51668599999999998</v>
+        <v>0.53268899999999997</v>
       </c>
       <c r="K9">
-        <v>0.50848599999999999</v>
+        <v>0.52053499999999997</v>
       </c>
       <c r="L9">
-        <v>0.51274699999999995</v>
+        <v>0.53438399999999997</v>
       </c>
       <c r="M9">
-        <v>0.501197</v>
+        <v>0.53621600000000003</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0.51006299999999993</v>
+        <v>0.53241240000000001</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>2.0125999999999866</v>
+        <v>6.4824800000000016</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2629,30 +8671,30 @@
         <v>20</v>
       </c>
       <c r="H10">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I10">
-        <v>0.51187099999999996</v>
+        <v>0.50165300000000002</v>
       </c>
       <c r="J10">
-        <v>0.50833899999999999</v>
+        <v>0.51070599999999999</v>
       </c>
       <c r="K10">
-        <v>0.50424000000000002</v>
+        <v>0.51007999999999998</v>
       </c>
       <c r="L10">
-        <v>0.509382</v>
+        <v>0.502579</v>
       </c>
       <c r="M10">
-        <v>0.49965300000000001</v>
+        <v>0.506135</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>0.50669700000000006</v>
+        <v>0.50623059999999998</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>1.3394000000000128</v>
+        <v>1.246119999999995</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -2663,30 +8705,30 @@
         <v>3</v>
       </c>
       <c r="H11">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I11">
-        <v>0.50509499999999996</v>
+        <v>0.498863</v>
       </c>
       <c r="J11">
-        <v>0.503714</v>
+        <v>0.504965</v>
       </c>
       <c r="K11">
-        <v>0.49817600000000001</v>
+        <v>0.51490599999999997</v>
       </c>
       <c r="L11">
-        <v>0.50718300000000005</v>
+        <v>0.49371999999999999</v>
       </c>
       <c r="M11">
-        <v>0.50783199999999995</v>
+        <v>0.50329500000000005</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>0.50439999999999996</v>
+        <v>0.50314979999999998</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>0.8799999999999919</v>
+        <v>0.62995999999999608</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2700,30 +8742,30 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="I12">
-        <v>0.49704900000000002</v>
+        <v>0.49684299999999998</v>
       </c>
       <c r="J12">
-        <v>0.496473</v>
+        <v>0.50466500000000003</v>
       </c>
       <c r="K12">
-        <v>0.491232</v>
+        <v>0.50248899999999996</v>
       </c>
       <c r="L12">
-        <v>0.493558</v>
+        <v>0.495116</v>
       </c>
       <c r="M12">
-        <v>0.49502800000000002</v>
+        <v>0.50682799999999995</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
-        <v>0.49466800000000005</v>
+        <f t="shared" ref="N12:N15" si="2">AVERAGE(I12:M12)</f>
+        <v>0.50118819999999997</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
-        <v>1.0663999999999896</v>
+        <f t="shared" ref="O12:O15" si="3">(ABS(N12-B$7)/B$7)*100</f>
+        <v>0.23763999999999452</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2737,301 +8779,1310 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I13">
-        <v>0.49846600000000002</v>
+        <v>0.49580400000000002</v>
       </c>
       <c r="J13">
-        <v>0.50531000000000004</v>
+        <v>0.50245399999999996</v>
       </c>
       <c r="K13">
-        <v>0.50460199999999999</v>
+        <v>0.50232900000000003</v>
       </c>
       <c r="L13">
-        <v>0.50866100000000003</v>
+        <v>0.50739699999999999</v>
       </c>
       <c r="M13">
-        <v>0.49425999999999998</v>
+        <v>0.50575499999999995</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
-        <v>0.50225980000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.50274780000000008</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
-        <v>0.4519600000000068</v>
+        <f t="shared" si="3"/>
+        <v>0.54956000000001559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>145</v>
+      </c>
+      <c r="I14">
+        <v>0.488533</v>
+      </c>
+      <c r="J14">
+        <v>0.50373100000000004</v>
+      </c>
+      <c r="K14">
+        <v>0.50047399999999997</v>
+      </c>
+      <c r="L14">
+        <v>0.50702599999999998</v>
+      </c>
+      <c r="M14">
+        <v>0.49315500000000001</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N15" si="4">AVERAGE(I14:M14)</f>
+        <v>0.49858380000000002</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O15" si="5">(ABS(N14-B$7)/B$7)*100</f>
+        <v>0.28323999999999572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>150</v>
+      </c>
+      <c r="I15">
+        <v>0.49015500000000001</v>
+      </c>
+      <c r="J15">
+        <v>0.49585699999999999</v>
+      </c>
+      <c r="K15">
+        <v>0.491728</v>
+      </c>
+      <c r="L15">
+        <v>0.490645</v>
+      </c>
+      <c r="M15">
+        <v>0.50152699999999995</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>0.49398239999999999</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>1.2035200000000024</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16">
+        <v>155</v>
+      </c>
+      <c r="I16">
+        <v>0.48042099999999999</v>
+      </c>
+      <c r="J16">
+        <v>0.50163400000000002</v>
+      </c>
+      <c r="K16">
+        <v>0.483848</v>
+      </c>
+      <c r="L16">
+        <v>0.50521700000000003</v>
+      </c>
+      <c r="M16">
+        <v>0.49956499999999998</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ref="N16:N21" si="6">AVERAGE(I16:M16)</f>
+        <v>0.49413699999999999</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ref="O16:O21" si="7">(ABS(N16-B$7)/B$7)*100</f>
+        <v>1.1726000000000014</v>
+      </c>
+    </row>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>160</v>
+      </c>
+      <c r="I17">
+        <v>0.48938399999999999</v>
+      </c>
+      <c r="J17">
+        <v>0.49998300000000001</v>
+      </c>
+      <c r="K17">
+        <v>0.493867</v>
+      </c>
+      <c r="L17">
+        <v>0.49562400000000001</v>
+      </c>
+      <c r="M17">
+        <v>0.49012499999999998</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>0.49379660000000003</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>1.240679999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>175</v>
+      </c>
+      <c r="I18">
+        <v>0.48236499999999999</v>
+      </c>
+      <c r="J18">
+        <v>0.496637</v>
+      </c>
+      <c r="K18">
+        <v>0.49045899999999998</v>
+      </c>
+      <c r="L18">
+        <v>0.48650900000000002</v>
+      </c>
+      <c r="M18">
+        <v>0.496147</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:N23" si="8">AVERAGE(I18:M18)</f>
+        <v>0.49042339999999995</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18:O23" si="9">(ABS(N18-B$7)/B$7)*100</f>
+        <v>1.9153200000000092</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>200</v>
+      </c>
+      <c r="I19">
+        <v>0.47671799999999998</v>
+      </c>
+      <c r="J19">
+        <v>0.48755399999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.48489399999999999</v>
+      </c>
+      <c r="L19">
+        <v>0.49274899999999999</v>
+      </c>
+      <c r="M19">
+        <v>0.47599900000000001</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="8"/>
+        <v>0.48358279999999992</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="9"/>
+        <v>3.2834400000000152</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>225</v>
+      </c>
+      <c r="I20">
+        <v>0.48385499999999998</v>
+      </c>
+      <c r="J20">
+        <v>0.47681400000000002</v>
+      </c>
+      <c r="K20">
+        <v>0.47601599999999999</v>
+      </c>
+      <c r="L20">
+        <v>0.47800599999999999</v>
+      </c>
+      <c r="M20">
+        <v>0.48146899999999998</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="8"/>
+        <v>0.47923199999999999</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="9"/>
+        <v>4.1536000000000017</v>
+      </c>
+    </row>
+    <row r="21" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>250</v>
+      </c>
+      <c r="I21">
+        <v>0.47749999999999998</v>
+      </c>
+      <c r="J21">
+        <v>0.47933999999999999</v>
+      </c>
+      <c r="K21">
+        <v>0.47671400000000003</v>
+      </c>
+      <c r="L21">
+        <v>0.480989</v>
+      </c>
+      <c r="M21">
+        <v>0.47915600000000003</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="8"/>
+        <v>0.47873980000000005</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="9"/>
+        <v>4.2520399999999903</v>
+      </c>
+    </row>
+    <row r="22" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>275</v>
+      </c>
+      <c r="I22">
+        <v>0.47602499999999998</v>
+      </c>
+      <c r="J22">
+        <v>0.48531099999999999</v>
+      </c>
+      <c r="K22">
+        <v>0.47240900000000002</v>
+      </c>
+      <c r="L22">
+        <v>0.48069099999999998</v>
+      </c>
+      <c r="M22">
+        <v>0.48618</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N25" si="10">AVERAGE(I22:M22)</f>
+        <v>0.48012319999999997</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22:O25" si="11">(ABS(N22-B$7)/B$7)*100</f>
+        <v>3.9753600000000056</v>
+      </c>
+    </row>
+    <row r="23" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>300</v>
+      </c>
+      <c r="I23">
+        <v>0.46414899999999998</v>
+      </c>
+      <c r="J23">
+        <v>0.47826299999999999</v>
+      </c>
+      <c r="K23">
+        <v>0.465924</v>
+      </c>
+      <c r="L23">
+        <v>0.47625800000000001</v>
+      </c>
+      <c r="M23">
+        <v>0.47539900000000002</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="10"/>
+        <v>0.47199860000000005</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="11"/>
+        <v>5.6002799999999908</v>
+      </c>
+    </row>
+    <row r="24" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>350</v>
+      </c>
+      <c r="I24">
+        <v>0.47303600000000001</v>
+      </c>
+      <c r="J24">
+        <v>0.47621200000000002</v>
+      </c>
+      <c r="K24">
+        <v>0.467001</v>
+      </c>
+      <c r="L24">
+        <v>0.47382600000000002</v>
+      </c>
+      <c r="M24">
+        <v>0.46443000000000001</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ref="N24:N27" si="12">AVERAGE(I24:M24)</f>
+        <v>0.47090100000000001</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ref="O24:O27" si="13">(ABS(N24-B$7)/B$7)*100</f>
+        <v>5.8197999999999972</v>
+      </c>
+    </row>
+    <row r="25" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>400</v>
+      </c>
+      <c r="I25">
+        <v>0.46484599999999998</v>
+      </c>
+      <c r="J25">
+        <v>0.47337699999999999</v>
+      </c>
+      <c r="K25">
+        <v>0.471661</v>
+      </c>
+      <c r="L25">
+        <v>0.466472</v>
+      </c>
+      <c r="M25">
+        <v>0.46500399999999997</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="12"/>
+        <v>0.46827199999999997</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="13"/>
+        <v>6.3456000000000063</v>
+      </c>
+    </row>
+    <row r="26" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>450</v>
+      </c>
+      <c r="I26">
+        <v>0.470169</v>
+      </c>
+      <c r="J26">
+        <v>0.458285</v>
+      </c>
+      <c r="K26">
+        <v>0.46594400000000002</v>
+      </c>
+      <c r="L26">
+        <v>0.462148</v>
+      </c>
+      <c r="M26">
+        <v>0.462115</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26:N28" si="14">AVERAGE(I26:M26)</f>
+        <v>0.46373220000000004</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ref="O26:O28" si="15">(ABS(N26-B$7)/B$7)*100</f>
+        <v>7.2535599999999922</v>
+      </c>
+    </row>
+    <row r="27" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>500</v>
+      </c>
+      <c r="I27">
+        <v>0.45786900000000003</v>
+      </c>
+      <c r="J27">
+        <v>0.46498400000000001</v>
+      </c>
+      <c r="K27">
+        <v>0.461642</v>
+      </c>
+      <c r="L27">
+        <v>0.45879599999999998</v>
+      </c>
+      <c r="M27">
+        <v>0.45642899999999997</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="14"/>
+        <v>0.45994399999999996</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="15"/>
+        <v>8.0112000000000076</v>
+      </c>
+    </row>
+    <row r="28" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>600</v>
+      </c>
+      <c r="I28">
+        <v>0.45607300000000001</v>
+      </c>
+      <c r="J28">
+        <v>0.46026699999999998</v>
+      </c>
+      <c r="K28">
+        <v>0.45285300000000001</v>
+      </c>
+      <c r="L28">
+        <v>0.45976400000000001</v>
+      </c>
+      <c r="M28">
+        <v>0.45381899999999997</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="14"/>
+        <v>0.45655520000000005</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="15"/>
+        <v>8.6889599999999909</v>
+      </c>
+    </row>
+    <row r="30" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H17" t="s">
+    <row r="31" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
         <v>24</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I31" t="s">
         <v>12</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J31" t="s">
         <v>13</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K31" t="s">
         <v>14</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L31" t="s">
         <v>15</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M31" t="s">
         <v>16</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N31" t="s">
         <v>17</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H18">
+    <row r="32" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>-0.24977099999999999</v>
+      </c>
+      <c r="J32">
+        <v>0.41292299999999998</v>
+      </c>
+      <c r="K32">
+        <v>0.20063900000000001</v>
+      </c>
+      <c r="L32">
+        <v>0.12255099999999999</v>
+      </c>
+      <c r="M32">
+        <v>-8.9255000000000001E-2</v>
+      </c>
+      <c r="N32">
+        <f>AVERAGE(I32:M32)</f>
+        <v>7.9417399999999999E-2</v>
+      </c>
+      <c r="O32">
+        <f>(ABS(N32-B$7)/B$7)*100</f>
+        <v>84.116520000000008</v>
+      </c>
+    </row>
+    <row r="33" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <v>0.911636</v>
+      </c>
+      <c r="J33">
+        <v>0.90910899999999994</v>
+      </c>
+      <c r="K33">
+        <v>0.91653499999999999</v>
+      </c>
+      <c r="L33">
+        <v>0.84872300000000001</v>
+      </c>
+      <c r="M33">
+        <v>0.90126399999999995</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33:N39" si="16">AVERAGE(I33:M33)</f>
+        <v>0.89745340000000007</v>
+      </c>
+      <c r="O33">
+        <f>(ABS(N33-B$7)/B$7)*100</f>
+        <v>79.490680000000012</v>
+      </c>
+    </row>
+    <row r="34" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>200</v>
+      </c>
+      <c r="I34">
+        <v>0.82428800000000002</v>
+      </c>
+      <c r="J34">
+        <v>0.81448200000000004</v>
+      </c>
+      <c r="K34">
+        <v>0.72319599999999995</v>
+      </c>
+      <c r="L34">
+        <v>0.76192300000000002</v>
+      </c>
+      <c r="M34">
+        <v>0.81164000000000003</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="16"/>
+        <v>0.78710579999999997</v>
+      </c>
+      <c r="O34">
+        <f>(ABS(N34-B$7)/B$7)*100</f>
+        <v>57.421159999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>400</v>
+      </c>
+      <c r="I35">
+        <v>0.72895799999999999</v>
+      </c>
+      <c r="J35">
+        <v>0.77349900000000005</v>
+      </c>
+      <c r="K35">
+        <v>0.687805</v>
+      </c>
+      <c r="L35">
+        <v>0.68762100000000004</v>
+      </c>
+      <c r="M35">
+        <v>0.66866000000000003</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="16"/>
+        <v>0.70930860000000007</v>
+      </c>
+      <c r="O35">
+        <f>(ABS(N35-B$7)/B$7)*100</f>
+        <v>41.861720000000012</v>
+      </c>
+    </row>
+    <row r="36" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>500</v>
+      </c>
+      <c r="I36">
+        <v>0.65409799999999996</v>
+      </c>
+      <c r="J36">
+        <v>0.73663100000000004</v>
+      </c>
+      <c r="K36">
+        <v>0.71192599999999995</v>
+      </c>
+      <c r="L36">
+        <v>0.74508099999999999</v>
+      </c>
+      <c r="M36">
+        <v>0.75238499999999997</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="16"/>
+        <v>0.72002419999999989</v>
+      </c>
+      <c r="O36">
+        <f>(ABS(N36-B$7)/B$7)*100</f>
+        <v>44.00483999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>750</v>
+      </c>
+      <c r="I37">
+        <v>0.68910099999999996</v>
+      </c>
+      <c r="J37">
+        <v>0.72460999999999998</v>
+      </c>
+      <c r="K37">
+        <v>0.66716299999999995</v>
+      </c>
+      <c r="L37">
+        <v>0.68548600000000004</v>
+      </c>
+      <c r="M37">
+        <v>0.72660100000000005</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37:N41" si="17">AVERAGE(I37:M37)</f>
+        <v>0.6985922</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ref="O37:O41" si="18">(ABS(N37-B$7)/B$7)*100</f>
+        <v>39.718440000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>1000</v>
+      </c>
+      <c r="I38">
+        <v>0.69382900000000003</v>
+      </c>
+      <c r="J38">
+        <v>0.69409299999999996</v>
+      </c>
+      <c r="K38">
+        <v>0.70599000000000001</v>
+      </c>
+      <c r="L38">
+        <v>0.70122200000000001</v>
+      </c>
+      <c r="M38">
+        <v>0.69784000000000002</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="17"/>
+        <v>0.69859480000000007</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="18"/>
+        <v>39.718960000000017</v>
+      </c>
+    </row>
+    <row r="39" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>1250</v>
+      </c>
+      <c r="I39">
+        <v>0.67516299999999996</v>
+      </c>
+      <c r="J39">
+        <v>0.62733899999999998</v>
+      </c>
+      <c r="K39">
+        <v>0.67261300000000002</v>
+      </c>
+      <c r="L39">
+        <v>0.68947599999999998</v>
+      </c>
+      <c r="M39">
+        <v>0.68253399999999997</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="17"/>
+        <v>0.66942500000000005</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="18"/>
+        <v>33.885000000000012</v>
+      </c>
+    </row>
+    <row r="40" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>1500</v>
+      </c>
+      <c r="I40">
+        <v>0.67693000000000003</v>
+      </c>
+      <c r="J40">
+        <v>0.67022000000000004</v>
+      </c>
+      <c r="K40">
+        <v>0.66794299999999995</v>
+      </c>
+      <c r="L40">
+        <v>0.681114</v>
+      </c>
+      <c r="M40">
+        <v>0.68043200000000004</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="17"/>
+        <v>0.67532780000000003</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="18"/>
+        <v>35.065560000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>1750</v>
+      </c>
+      <c r="I41">
+        <v>0.60307299999999997</v>
+      </c>
+      <c r="J41">
+        <v>0.59332499999999999</v>
+      </c>
+      <c r="K41">
+        <v>0.60772599999999999</v>
+      </c>
+      <c r="L41">
+        <v>0.59987999999999997</v>
+      </c>
+      <c r="M41">
+        <v>0.59414999999999996</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="17"/>
+        <v>0.59963079999999991</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="18"/>
+        <v>19.926159999999982</v>
+      </c>
+    </row>
+    <row r="42" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>2000</v>
+      </c>
+      <c r="I42">
+        <v>0.54712000000000005</v>
+      </c>
+      <c r="J42">
+        <v>0.55983499999999997</v>
+      </c>
+      <c r="K42">
+        <v>0.543956</v>
+      </c>
+      <c r="L42">
+        <v>0.53669999999999995</v>
+      </c>
+      <c r="M42">
+        <v>0.544462</v>
+      </c>
+      <c r="N42">
+        <f t="shared" ref="N42:N44" si="19">AVERAGE(I42:M42)</f>
+        <v>0.54641460000000008</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:O44" si="20">(ABS(N42-B$7)/B$7)*100</f>
+        <v>9.2829200000000167</v>
+      </c>
+    </row>
+    <row r="43" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>2250</v>
+      </c>
+      <c r="I43">
+        <v>0.51597099999999996</v>
+      </c>
+      <c r="J43">
+        <v>0.52947599999999995</v>
+      </c>
+      <c r="K43">
+        <v>0.52806399999999998</v>
+      </c>
+      <c r="L43">
+        <v>0.51974900000000002</v>
+      </c>
+      <c r="M43">
+        <v>0.50536599999999998</v>
+      </c>
+      <c r="N43">
+        <f t="shared" ref="N43:N47" si="21">AVERAGE(I43:M43)</f>
+        <v>0.5197252</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ref="O43:O47" si="22">(ABS(N43-B$7)/B$7)*100</f>
+        <v>3.9450399999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <v>2300</v>
+      </c>
+      <c r="I44">
+        <v>0.52273700000000001</v>
+      </c>
+      <c r="J44">
+        <v>0.52759599999999995</v>
+      </c>
+      <c r="K44">
+        <v>0.51369299999999996</v>
+      </c>
+      <c r="L44">
+        <v>0.53941799999999995</v>
+      </c>
+      <c r="M44">
+        <v>0.51712499999999995</v>
+      </c>
+      <c r="N44">
+        <f t="shared" ref="N44:N51" si="23">AVERAGE(I44:M44)</f>
+        <v>0.52411379999999996</v>
+      </c>
+      <c r="O44">
+        <f t="shared" ref="O44:O51" si="24">(ABS(N44-B$7)/B$7)*100</f>
+        <v>4.8227599999999926</v>
+      </c>
+    </row>
+    <row r="45" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <v>2400</v>
+      </c>
+      <c r="I45">
+        <v>0.53172399999999997</v>
+      </c>
+      <c r="J45">
+        <v>0.53666400000000003</v>
+      </c>
+      <c r="K45">
+        <v>0.53032900000000005</v>
+      </c>
+      <c r="L45">
+        <v>0.51935699999999996</v>
+      </c>
+      <c r="M45">
+        <v>0.536497</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="23"/>
+        <v>0.5309142</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="24"/>
+        <v>6.1828400000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>2500</v>
+      </c>
+      <c r="I46">
+        <v>0.485406</v>
+      </c>
+      <c r="J46">
+        <v>0.54717300000000002</v>
+      </c>
+      <c r="K46">
+        <v>0.53615299999999999</v>
+      </c>
+      <c r="L46">
+        <v>0.53131099999999998</v>
+      </c>
+      <c r="M46">
+        <v>0.53319300000000003</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="23"/>
+        <v>0.52664719999999998</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="24"/>
+        <v>5.3294399999999964</v>
+      </c>
+    </row>
+    <row r="47" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <v>2750</v>
+      </c>
+      <c r="I47">
+        <v>0.54939499999999997</v>
+      </c>
+      <c r="J47">
+        <v>0.54899299999999995</v>
+      </c>
+      <c r="K47">
+        <v>0.53271500000000005</v>
+      </c>
+      <c r="L47">
+        <v>0.51095400000000002</v>
+      </c>
+      <c r="M47">
+        <v>0.54251799999999994</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="23"/>
+        <v>0.53691499999999992</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="24"/>
+        <v>7.382999999999984</v>
+      </c>
+    </row>
+    <row r="48" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>3000</v>
+      </c>
+      <c r="I48">
+        <v>0.54709700000000006</v>
+      </c>
+      <c r="J48">
+        <v>0.54038799999999998</v>
+      </c>
+      <c r="K48">
+        <v>0.53917300000000001</v>
+      </c>
+      <c r="L48">
+        <v>0.526308</v>
+      </c>
+      <c r="M48">
+        <v>0.555755</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="23"/>
+        <v>0.54174420000000001</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="24"/>
+        <v>8.3488400000000027</v>
+      </c>
+    </row>
+    <row r="49" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <v>3250</v>
+      </c>
+      <c r="I49">
+        <v>0.55188700000000002</v>
+      </c>
+      <c r="J49">
+        <v>0.52205100000000004</v>
+      </c>
+      <c r="K49">
+        <v>0.55501900000000004</v>
+      </c>
+      <c r="L49">
+        <v>0.55120499999999995</v>
+      </c>
+      <c r="M49">
+        <v>0.56172500000000003</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="23"/>
+        <v>0.54837740000000001</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="24"/>
+        <v>9.6754800000000039</v>
+      </c>
+    </row>
+    <row r="50" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <v>3500</v>
+      </c>
+      <c r="I50">
+        <v>0.51243000000000005</v>
+      </c>
+      <c r="J50">
+        <v>0.49599300000000002</v>
+      </c>
+      <c r="K50">
+        <v>0.50420799999999999</v>
+      </c>
+      <c r="L50">
+        <v>0.50375999999999999</v>
+      </c>
+      <c r="M50">
+        <v>0.50726000000000004</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="23"/>
+        <v>0.50473020000000002</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="24"/>
+        <v>0.94604000000000354</v>
+      </c>
+    </row>
+    <row r="51" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <v>3750</v>
+      </c>
+      <c r="I51">
+        <v>0.49697200000000002</v>
+      </c>
+      <c r="J51">
+        <v>0.50228099999999998</v>
+      </c>
+      <c r="K51">
+        <v>0.48877900000000002</v>
+      </c>
+      <c r="L51">
+        <v>0.50312599999999996</v>
+      </c>
+      <c r="M51">
+        <v>0.49355399999999999</v>
+      </c>
+      <c r="N51">
+        <f t="shared" ref="N51:N52" si="25">AVERAGE(I51:M51)</f>
+        <v>0.49694240000000001</v>
+      </c>
+      <c r="O51">
+        <f t="shared" ref="O51:O52" si="26">(ABS(N51-B$7)/B$7)*100</f>
+        <v>0.61151999999999873</v>
+      </c>
+    </row>
+    <row r="52" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <v>4000</v>
+      </c>
+      <c r="I52">
+        <v>0.48877900000000002</v>
+      </c>
+      <c r="J52">
+        <v>0.494836</v>
+      </c>
+      <c r="K52">
+        <v>0.47702099999999997</v>
+      </c>
+      <c r="L52">
+        <v>0.48766500000000002</v>
+      </c>
+      <c r="M52">
+        <v>0.50254600000000005</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="25"/>
+        <v>0.49016939999999998</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="26"/>
+        <v>1.9661200000000045</v>
+      </c>
+    </row>
+    <row r="53" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <v>4500</v>
+      </c>
+      <c r="I53">
+        <v>0.48357499999999998</v>
+      </c>
+      <c r="J53">
+        <v>0.49945200000000001</v>
+      </c>
+      <c r="K53">
+        <v>0.49506800000000001</v>
+      </c>
+      <c r="L53">
+        <v>0.50142600000000004</v>
+      </c>
+      <c r="M53">
+        <v>0.480016</v>
+      </c>
+      <c r="N53">
+        <f t="shared" ref="N53:N56" si="27">AVERAGE(I53:M53)</f>
+        <v>0.49190739999999999</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53:O56" si="28">(ABS(N53-B$7)/B$7)*100</f>
+        <v>1.6185200000000011</v>
+      </c>
+    </row>
+    <row r="54" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H54">
         <v>5000</v>
       </c>
-      <c r="I18">
-        <v>0.50206700000000004</v>
-      </c>
-      <c r="J18">
-        <v>0.48826799999999998</v>
-      </c>
-      <c r="K18">
-        <v>0.495174</v>
-      </c>
-      <c r="L18">
-        <v>0.48793199999999998</v>
-      </c>
-      <c r="M18">
-        <v>0.51444199999999995</v>
-      </c>
-      <c r="N18">
-        <f>AVERAGE(I18:M18)</f>
-        <v>0.49757660000000004</v>
-      </c>
-      <c r="O18">
-        <f>(ABS(N18-B$7)/B$7)*100</f>
-        <v>0.48467999999999289</v>
-      </c>
-    </row>
-    <row r="19" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H19">
-        <v>4000</v>
-      </c>
-      <c r="I19">
-        <v>0.47847299999999998</v>
-      </c>
-      <c r="J19">
-        <v>0.46806900000000001</v>
-      </c>
-      <c r="K19">
-        <v>0.50183599999999995</v>
-      </c>
-      <c r="L19">
-        <v>0.484213</v>
-      </c>
-      <c r="M19">
-        <v>0.48002400000000001</v>
-      </c>
-      <c r="N19">
-        <f t="shared" ref="N19:N25" si="2">AVERAGE(I19:M19)</f>
-        <v>0.48252299999999992</v>
-      </c>
-      <c r="O19">
-        <f t="shared" ref="O19:O25" si="3">(ABS(N19-B$7)/B$7)*100</f>
-        <v>3.4954000000000152</v>
-      </c>
-    </row>
-    <row r="20" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H20">
+      <c r="I54">
+        <v>0.51511799999999996</v>
+      </c>
+      <c r="J54">
+        <v>0.49118099999999998</v>
+      </c>
+      <c r="K54">
+        <v>0.48967300000000002</v>
+      </c>
+      <c r="L54">
+        <v>0.48906699999999997</v>
+      </c>
+      <c r="M54">
+        <v>0.51708500000000002</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="27"/>
+        <v>0.5004248</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="28"/>
+        <v>8.4960000000000591E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <v>5250</v>
+      </c>
+      <c r="I55">
+        <v>0.47711799999999999</v>
+      </c>
+      <c r="J55">
+        <v>0.47737800000000002</v>
+      </c>
+      <c r="K55">
+        <v>0.47951100000000002</v>
+      </c>
+      <c r="L55">
+        <v>0.47197600000000001</v>
+      </c>
+      <c r="M55">
+        <v>0.47326400000000002</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="27"/>
+        <v>0.47584939999999998</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="28"/>
+        <v>4.8301200000000044</v>
+      </c>
+    </row>
+    <row r="56" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <v>5500</v>
+      </c>
+      <c r="I56">
+        <v>0.47164899999999998</v>
+      </c>
+      <c r="J56">
+        <v>0.48302400000000001</v>
+      </c>
+      <c r="K56">
+        <v>0.48519099999999998</v>
+      </c>
+      <c r="L56">
+        <v>0.47635300000000003</v>
+      </c>
+      <c r="M56">
+        <v>0.47662100000000002</v>
+      </c>
+      <c r="N56">
+        <f t="shared" ref="N56:N57" si="29">AVERAGE(I56:M56)</f>
+        <v>0.47856760000000004</v>
+      </c>
+      <c r="O56">
+        <f t="shared" ref="O56:O57" si="30">(ABS(N56-B$7)/B$7)*100</f>
+        <v>4.2864799999999921</v>
+      </c>
+    </row>
+    <row r="57" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <v>5750</v>
+      </c>
+      <c r="I57">
+        <v>0.47411500000000001</v>
+      </c>
+      <c r="J57">
+        <v>0.450488</v>
+      </c>
+      <c r="K57">
+        <v>0.47223500000000002</v>
+      </c>
+      <c r="L57">
+        <v>0.46676299999999998</v>
+      </c>
+      <c r="M57">
+        <v>0.47404000000000002</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="29"/>
+        <v>0.4675282</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="30"/>
+        <v>6.4943599999999986</v>
+      </c>
+    </row>
+    <row r="58" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H58">
         <v>6000</v>
       </c>
-      <c r="I20">
-        <v>0.457422</v>
-      </c>
-      <c r="J20">
-        <v>0.47072000000000003</v>
-      </c>
-      <c r="K20">
-        <v>0.46939599999999998</v>
-      </c>
-      <c r="L20">
-        <v>0.46750700000000001</v>
-      </c>
-      <c r="M20">
-        <v>0.47055000000000002</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="2"/>
-        <v>0.46711899999999995</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="3"/>
-        <v>6.5762000000000098</v>
-      </c>
-    </row>
-    <row r="21" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H21">
-        <v>4500</v>
-      </c>
-      <c r="I21">
-        <v>0.50149500000000002</v>
-      </c>
-      <c r="J21">
-        <v>0.47379500000000002</v>
-      </c>
-      <c r="K21">
-        <v>0.49879299999999999</v>
-      </c>
-      <c r="L21">
-        <v>0.49568299999999998</v>
-      </c>
-      <c r="M21">
-        <v>0.49526900000000001</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="2"/>
-        <v>0.49300699999999997</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="3"/>
-        <v>1.3986000000000054</v>
-      </c>
-    </row>
-    <row r="22" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H22">
-        <v>4750</v>
-      </c>
-      <c r="I22">
-        <v>0.48317199999999999</v>
-      </c>
-      <c r="J22">
-        <v>0.47868100000000002</v>
-      </c>
-      <c r="K22">
-        <v>0.50053599999999998</v>
-      </c>
-      <c r="L22">
-        <v>0.50086900000000001</v>
-      </c>
-      <c r="M22">
-        <v>0.47778300000000001</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="2"/>
-        <v>0.48820819999999998</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="3"/>
-        <v>2.3583600000000038</v>
-      </c>
-    </row>
-    <row r="23" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H23">
-        <v>4900</v>
-      </c>
-      <c r="I23">
-        <v>0.50866699999999998</v>
-      </c>
-      <c r="J23">
-        <v>0.48210999999999998</v>
-      </c>
-      <c r="K23">
-        <v>0.49327399999999999</v>
-      </c>
-      <c r="L23">
-        <v>0.50569399999999998</v>
-      </c>
-      <c r="M23">
-        <v>0.51533700000000005</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="2"/>
-        <v>0.50101640000000003</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="3"/>
-        <v>0.20328000000000568</v>
-      </c>
-    </row>
-    <row r="24" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H24">
-        <v>4950</v>
-      </c>
-      <c r="I24">
-        <v>0.51389700000000005</v>
-      </c>
-      <c r="J24">
-        <v>0.49232799999999999</v>
-      </c>
-      <c r="K24">
-        <v>0.51245200000000002</v>
-      </c>
-      <c r="L24">
-        <v>0.48665799999999998</v>
-      </c>
-      <c r="M24">
-        <v>0.48947200000000002</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="2"/>
-        <v>0.49896140000000005</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="3"/>
-        <v>0.20771999999998902</v>
-      </c>
-    </row>
-    <row r="25" spans="8:15" x14ac:dyDescent="0.3">
-      <c r="H25">
-        <v>4925</v>
-      </c>
-      <c r="I25">
-        <v>0.51537500000000003</v>
-      </c>
-      <c r="J25">
-        <v>0.47100500000000001</v>
-      </c>
-      <c r="K25">
-        <v>0.49945200000000001</v>
-      </c>
-      <c r="L25">
-        <v>0.51138799999999995</v>
-      </c>
-      <c r="M25">
-        <v>0.47866799999999998</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="2"/>
-        <v>0.4951776</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="3"/>
-        <v>0.96448000000000089</v>
+      <c r="I58">
+        <v>0.46663900000000003</v>
+      </c>
+      <c r="J58">
+        <v>0.45724399999999998</v>
+      </c>
+      <c r="K58">
+        <v>0.46865000000000001</v>
+      </c>
+      <c r="L58">
+        <v>0.46762700000000001</v>
+      </c>
+      <c r="M58">
+        <v>0.460067</v>
+      </c>
+      <c r="N58">
+        <f t="shared" ref="N58:N59" si="31">AVERAGE(I58:M58)</f>
+        <v>0.4640454</v>
+      </c>
+      <c r="O58">
+        <f t="shared" ref="O58:O59" si="32">(ABS(N58-B$7)/B$7)*100</f>
+        <v>7.1909200000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <v>6500</v>
+      </c>
+      <c r="I59">
+        <v>0.47197299999999998</v>
+      </c>
+      <c r="J59">
+        <v>0.46439999999999998</v>
+      </c>
+      <c r="K59">
+        <v>0.46455999999999997</v>
+      </c>
+      <c r="L59">
+        <v>0.453324</v>
+      </c>
+      <c r="M59">
+        <v>0.454129</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="31"/>
+        <v>0.4616771999999999</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="32"/>
+        <v>7.6645600000000202</v>
+      </c>
+    </row>
+    <row r="60" spans="8:15" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>7000</v>
+      </c>
+      <c r="I60">
+        <v>0.45295000000000002</v>
+      </c>
+      <c r="J60">
+        <v>0.45596599999999998</v>
+      </c>
+      <c r="K60">
+        <v>0.45951399999999998</v>
+      </c>
+      <c r="L60">
+        <v>0.463426</v>
+      </c>
+      <c r="M60">
+        <v>0.45782699999999998</v>
+      </c>
+      <c r="N60">
+        <f t="shared" ref="N60" si="33">AVERAGE(I60:M60)</f>
+        <v>0.45793660000000003</v>
+      </c>
+      <c r="O60">
+        <f t="shared" ref="O60" si="34">(ABS(N60-B$7)/B$7)*100</f>
+        <v>8.4126799999999946</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G47" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView topLeftCell="D70" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90:O91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3471,11 +10522,11 @@
         <v>2.0094799999999999</v>
       </c>
       <c r="N19">
-        <f t="shared" ref="N19:N25" si="4">AVERAGE(I19:M19)</f>
+        <f t="shared" ref="N19:N21" si="4">AVERAGE(I19:M19)</f>
         <v>2.0337000000000001</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O25" si="5">(ABS(N19-B$7)/B$7)*100</f>
+        <f t="shared" ref="O19:O21" si="5">(ABS(N19-B$7)/B$7)*100</f>
         <v>86.442000000000007</v>
       </c>
     </row>
@@ -3998,11 +11049,11 @@
         <v>4.5966100000000001</v>
       </c>
       <c r="N45">
-        <f t="shared" ref="N45:N48" si="10">AVERAGE(I45:M45)</f>
+        <f t="shared" ref="N45" si="10">AVERAGE(I45:M45)</f>
         <v>4.5986739999999999</v>
       </c>
       <c r="O45">
-        <f t="shared" ref="O45:O48" si="11">(ABS(N45-B$7)/B$7)*100</f>
+        <f t="shared" ref="O45" si="11">(ABS(N45-B$7)/B$7)*100</f>
         <v>69.342173333333335</v>
       </c>
     </row>
@@ -4011,7 +11062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G49" t="s">
         <v>23</v>
       </c>
@@ -4019,7 +11070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H50" t="s">
         <v>24</v>
       </c>
@@ -4045,7 +11096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H51">
         <v>140</v>
       </c>
@@ -4073,7 +11124,7 @@
         <v>72.733520000000013</v>
       </c>
     </row>
-    <row r="52" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H52">
         <v>4000</v>
       </c>
@@ -4093,15 +11144,15 @@
         <v>10.8658</v>
       </c>
       <c r="N52">
-        <f t="shared" ref="N52:N59" si="12">AVERAGE(I52:M52)</f>
+        <f t="shared" ref="N52:N55" si="12">AVERAGE(I52:M52)</f>
         <v>10.955719999999999</v>
       </c>
       <c r="O52">
-        <f t="shared" ref="O52:O59" si="13">(ABS(N52-B$7)/B$7)*100</f>
+        <f t="shared" ref="O52:O55" si="13">(ABS(N52-B$7)/B$7)*100</f>
         <v>26.961866666666673</v>
       </c>
     </row>
-    <row r="53" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H53">
         <v>10000</v>
       </c>
@@ -4129,7 +11180,7 @@
         <v>29.174266666666664</v>
       </c>
     </row>
-    <row r="54" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H54">
         <v>6000</v>
       </c>
@@ -4157,7 +11208,7 @@
         <v>26.885733333333327</v>
       </c>
     </row>
-    <row r="55" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H55">
         <v>7000</v>
       </c>
@@ -4185,7 +11236,7 @@
         <v>27.426533333333342</v>
       </c>
     </row>
-    <row r="57" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G57" t="s">
         <v>26</v>
       </c>
@@ -4193,7 +11244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H58" t="s">
         <v>24</v>
       </c>
@@ -4219,7 +11270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H59">
         <v>4900</v>
       </c>
@@ -4247,7 +11298,7 @@
         <v>89.823440000000005</v>
       </c>
     </row>
-    <row r="60" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H60">
         <v>20000</v>
       </c>
@@ -4267,7 +11318,7 @@
         <v>3.9326400000000001</v>
       </c>
       <c r="N60">
-        <f t="shared" ref="N60:N63" si="14">AVERAGE(I60:M60)</f>
+        <f t="shared" ref="N60:N61" si="14">AVERAGE(I60:M60)</f>
         <v>4.0489240000000004</v>
       </c>
       <c r="O60">
@@ -4275,7 +11326,7 @@
         <v>73.007173333333341</v>
       </c>
     </row>
-    <row r="61" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H61">
         <v>100000</v>
       </c>
@@ -4301,6 +11352,516 @@
       <c r="O61">
         <f>(ABS(N61-B$7)/B$7)*100</f>
         <v>64.821893333333335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66" t="s">
+        <v>15</v>
+      </c>
+      <c r="M66" t="s">
+        <v>16</v>
+      </c>
+      <c r="N66" t="s">
+        <v>17</v>
+      </c>
+      <c r="O66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <v>140</v>
+      </c>
+      <c r="I67">
+        <v>3.91466</v>
+      </c>
+      <c r="J67">
+        <v>4.21366</v>
+      </c>
+      <c r="K67">
+        <v>4.0907</v>
+      </c>
+      <c r="L67">
+        <v>4.0446499999999999</v>
+      </c>
+      <c r="M67">
+        <v>3.95757</v>
+      </c>
+      <c r="N67">
+        <f>AVERAGE(I67:M67)</f>
+        <v>4.0442480000000005</v>
+      </c>
+      <c r="O67">
+        <f>(ABS(N67-B$7)/B$7)*100</f>
+        <v>73.038346666666669</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <v>10000</v>
+      </c>
+      <c r="I68">
+        <v>10.648300000000001</v>
+      </c>
+      <c r="J68">
+        <v>10.6959</v>
+      </c>
+      <c r="K68">
+        <v>10.685600000000001</v>
+      </c>
+      <c r="L68">
+        <v>10.738</v>
+      </c>
+      <c r="M68">
+        <v>10.801600000000001</v>
+      </c>
+      <c r="N68">
+        <f>AVERAGE(I68:M68)</f>
+        <v>10.71388</v>
+      </c>
+      <c r="O68">
+        <f>(ABS(N68-B$7)/B$7)*100</f>
+        <v>28.574133333333336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <v>20000</v>
+      </c>
+      <c r="I69">
+        <v>9.8431899999999999</v>
+      </c>
+      <c r="J69">
+        <v>9.7664799999999996</v>
+      </c>
+      <c r="K69">
+        <v>9.8341499999999993</v>
+      </c>
+      <c r="L69">
+        <v>9.8851999999999993</v>
+      </c>
+      <c r="M69">
+        <v>9.8515999999999995</v>
+      </c>
+      <c r="N69">
+        <f>AVERAGE(I68:M68)</f>
+        <v>10.71388</v>
+      </c>
+      <c r="O69">
+        <f t="shared" ref="O69" si="15">(ABS(N69-B$7)/B$7)*100</f>
+        <v>28.574133333333336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72" t="s">
+        <v>15</v>
+      </c>
+      <c r="M72" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" t="s">
+        <v>17</v>
+      </c>
+      <c r="O72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <v>4900</v>
+      </c>
+      <c r="I73">
+        <v>1.4185300000000001</v>
+      </c>
+      <c r="J73">
+        <v>1.84257</v>
+      </c>
+      <c r="K73">
+        <v>1.56488</v>
+      </c>
+      <c r="L73">
+        <v>2.0072000000000001</v>
+      </c>
+      <c r="M73">
+        <v>0.69405799999999995</v>
+      </c>
+      <c r="N73">
+        <f>AVERAGE(I73:M73)</f>
+        <v>1.5054475999999999</v>
+      </c>
+      <c r="O73">
+        <f>(ABS(N73-B$7)/B$7)*100</f>
+        <v>89.963682666666671</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <v>20000</v>
+      </c>
+      <c r="I74">
+        <v>4.3439199999999998</v>
+      </c>
+      <c r="J74">
+        <v>4.2119200000000001</v>
+      </c>
+      <c r="K74">
+        <v>4.1968300000000003</v>
+      </c>
+      <c r="L74">
+        <v>4.2001600000000003</v>
+      </c>
+      <c r="M74">
+        <v>4.1951700000000001</v>
+      </c>
+      <c r="N74">
+        <f t="shared" ref="N74" si="16">AVERAGE(I74:M74)</f>
+        <v>4.2295999999999996</v>
+      </c>
+      <c r="O74">
+        <f>(ABS(N74-B$7)/B$7)*100</f>
+        <v>71.802666666666667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" t="s">
+        <v>15</v>
+      </c>
+      <c r="M78" t="s">
+        <v>16</v>
+      </c>
+      <c r="N78" t="s">
+        <v>17</v>
+      </c>
+      <c r="O78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <v>140</v>
+      </c>
+      <c r="I79">
+        <v>3.0558299999999998</v>
+      </c>
+      <c r="J79">
+        <v>2.42727</v>
+      </c>
+      <c r="K79">
+        <v>2.7581899999999999</v>
+      </c>
+      <c r="L79">
+        <v>2.5105599999999999</v>
+      </c>
+      <c r="M79">
+        <v>2.907</v>
+      </c>
+      <c r="N79">
+        <f>AVERAGE(I79:M79)</f>
+        <v>2.73177</v>
+      </c>
+      <c r="O79">
+        <f>(ABS(N79-B$7)/B$7)*100</f>
+        <v>81.788199999999989</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <v>4000</v>
+      </c>
+      <c r="I80">
+        <v>9.1584299999999992</v>
+      </c>
+      <c r="J80">
+        <v>8.8735300000000006</v>
+      </c>
+      <c r="K80">
+        <v>8.9221500000000002</v>
+      </c>
+      <c r="L80">
+        <v>8.9493600000000004</v>
+      </c>
+      <c r="M80">
+        <v>8.9400600000000008</v>
+      </c>
+      <c r="N80">
+        <f t="shared" ref="N80:N83" si="17">AVERAGE(I80:M80)</f>
+        <v>8.968706000000001</v>
+      </c>
+      <c r="O80">
+        <f t="shared" ref="O80:O83" si="18">(ABS(N80-B$7)/B$7)*100</f>
+        <v>40.20862666666666</v>
+      </c>
+    </row>
+    <row r="81" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <v>10000</v>
+      </c>
+      <c r="I81">
+        <v>10.7662</v>
+      </c>
+      <c r="J81">
+        <v>10.9453</v>
+      </c>
+      <c r="K81">
+        <v>11.007300000000001</v>
+      </c>
+      <c r="L81">
+        <v>10.8238</v>
+      </c>
+      <c r="M81">
+        <v>10.8691</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="17"/>
+        <v>10.882339999999999</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="18"/>
+        <v>27.451066666666673</v>
+      </c>
+    </row>
+    <row r="82" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <v>25000</v>
+      </c>
+      <c r="I82">
+        <v>12.606999999999999</v>
+      </c>
+      <c r="J82">
+        <v>12.551399999999999</v>
+      </c>
+      <c r="K82">
+        <v>12.8254</v>
+      </c>
+      <c r="L82">
+        <v>12.7988</v>
+      </c>
+      <c r="M82">
+        <v>12.4815</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="17"/>
+        <v>12.65282</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="18"/>
+        <v>15.647866666666665</v>
+      </c>
+    </row>
+    <row r="83" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <v>50000</v>
+      </c>
+      <c r="I83">
+        <v>12.357900000000001</v>
+      </c>
+      <c r="J83">
+        <v>12.397500000000001</v>
+      </c>
+      <c r="K83">
+        <v>12.354200000000001</v>
+      </c>
+      <c r="L83">
+        <v>12.5604</v>
+      </c>
+      <c r="M83">
+        <v>12.4414</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="17"/>
+        <v>12.422280000000001</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="18"/>
+        <v>17.184799999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <v>100000</v>
+      </c>
+      <c r="I84">
+        <v>11.759499999999999</v>
+      </c>
+      <c r="J84">
+        <v>11.947900000000001</v>
+      </c>
+      <c r="K84">
+        <v>12.052</v>
+      </c>
+      <c r="L84">
+        <v>11.8125</v>
+      </c>
+      <c r="M84">
+        <v>11.8774</v>
+      </c>
+      <c r="N84">
+        <f t="shared" ref="N84:N85" si="19">AVERAGE(I84:M84)</f>
+        <v>11.889860000000001</v>
+      </c>
+      <c r="O84">
+        <f t="shared" ref="O84:O85" si="20">(ABS(N84-B$7)/B$7)*100</f>
+        <v>20.734266666666663</v>
+      </c>
+    </row>
+    <row r="85" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <v>75000</v>
+      </c>
+      <c r="I85">
+        <v>12.1564</v>
+      </c>
+      <c r="J85">
+        <v>12.3065</v>
+      </c>
+      <c r="K85">
+        <v>12.2074</v>
+      </c>
+      <c r="L85">
+        <v>11.959300000000001</v>
+      </c>
+      <c r="M85">
+        <v>12.020799999999999</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="19"/>
+        <v>12.13008</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="20"/>
+        <v>19.132800000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88" t="s">
+        <v>13</v>
+      </c>
+      <c r="K88" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" t="s">
+        <v>15</v>
+      </c>
+      <c r="M88" t="s">
+        <v>16</v>
+      </c>
+      <c r="N88" t="s">
+        <v>17</v>
+      </c>
+      <c r="O88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <v>4900</v>
+      </c>
+      <c r="I89">
+        <v>-19.194700000000001</v>
+      </c>
+      <c r="J89">
+        <v>-19.065100000000001</v>
+      </c>
+      <c r="K89">
+        <v>-19.0227</v>
+      </c>
+      <c r="L89">
+        <v>-19.033100000000001</v>
+      </c>
+      <c r="M89">
+        <v>-19.017299999999999</v>
+      </c>
+      <c r="N89">
+        <f>AVERAGE(I89:M89)</f>
+        <v>-19.066579999999998</v>
+      </c>
+      <c r="O89">
+        <f>(ABS(N89-B$7)/B$7)*100</f>
+        <v>227.11053333333334</v>
       </c>
     </row>
   </sheetData>
